--- a/data/token/SUNDOG.xlsx
+++ b/data/token/SUNDOG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,36 @@
   </si>
   <si>
     <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
   </si>
 </sst>
 </file>
@@ -401,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,6 +485,56 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/token/SUNDOG.xlsx
+++ b/data/token/SUNDOG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,6 +538,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
